--- a/CLIMEX/Final_outfls/Analysis/N_locs_EI_Lt10.xlsx
+++ b/CLIMEX/Final_outfls/Analysis/N_locs_EI_Lt10.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -21,9 +21,6 @@
   </si>
   <si>
     <t xml:space="preserve">n_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
   </si>
   <si>
     <t xml:space="preserve">Iran</t>
@@ -377,29 +374,20 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4"/>
+      <c r="C3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CLIMEX/Final_outfls/Analysis/N_locs_EI_Lt10.xlsx
+++ b/CLIMEX/Final_outfls/Analysis/N_locs_EI_Lt10.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t xml:space="preserve">n_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
   </si>
   <si>
     <t xml:space="preserve">Iran</t>
@@ -374,20 +377,29 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C3"/>
+      <c r="C4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
